--- a/Aggregated_data_test.xlsx
+++ b/Aggregated_data_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunhuigu/Desktop/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B06DFB-23D9-F54E-AF51-F97003C33BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E136EE6-1FA0-9845-98CB-30220F738207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2780" windowWidth="34200" windowHeight="20020" xr2:uid="{571264F5-FC1A-1F49-9C01-D9CC098A5DA4}"/>
+    <workbookView xWindow="10620" yWindow="2180" windowWidth="34200" windowHeight="19960" xr2:uid="{571264F5-FC1A-1F49-9C01-D9CC098A5DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
-  <si>
-    <t>id</t>
-  </si>
   <si>
     <t>protein20</t>
   </si>
@@ -346,18 +343,27 @@
   <si>
     <t>20_32_ICQ</t>
   </si>
+  <si>
+    <t>survival_time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,8 +386,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,325 +726,325 @@
   <dimension ref="A1:CY226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection sqref="A1:A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>101</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1.2702533006668</v>
@@ -1347,8 +1354,8 @@
       </c>
     </row>
     <row r="3" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>73</v>
       </c>
       <c r="B3">
         <v>1.8944091796875</v>
@@ -1658,8 +1665,8 @@
       </c>
     </row>
     <row r="4" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>59</v>
       </c>
       <c r="B4">
         <v>8.1223955154418892</v>
@@ -1969,8 +1976,8 @@
       </c>
     </row>
     <row r="5" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>53</v>
       </c>
       <c r="B5">
         <v>9.5583461225032806E-2</v>
@@ -2280,8 +2287,8 @@
       </c>
     </row>
     <row r="6" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>169</v>
       </c>
       <c r="B6">
         <v>1.4989641904830899</v>
@@ -2591,8 +2598,8 @@
       </c>
     </row>
     <row r="7" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>171</v>
       </c>
       <c r="B7">
         <v>9.8781995475292206E-2</v>
@@ -2902,8 +2909,8 @@
       </c>
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="1">
+        <v>33</v>
       </c>
       <c r="B8">
         <v>3.3511943817138601</v>
@@ -3213,8 +3220,8 @@
       </c>
     </row>
     <row r="9" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>66</v>
       </c>
       <c r="B9">
         <v>0.58632802963256803</v>
@@ -3524,8 +3531,8 @@
       </c>
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="1">
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0.53546285629272405</v>
@@ -3835,8 +3842,8 @@
       </c>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>107</v>
       </c>
       <c r="B11">
         <v>1.8198810815811099</v>
@@ -4146,8 +4153,8 @@
       </c>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="1">
+        <v>102</v>
       </c>
       <c r="B12">
         <v>1.2205116748809799</v>
@@ -4457,8 +4464,8 @@
       </c>
     </row>
     <row r="13" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>63</v>
       </c>
       <c r="B13">
         <v>1.09115350246429</v>
@@ -4768,8 +4775,8 @@
       </c>
     </row>
     <row r="14" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="1">
+        <v>35</v>
       </c>
       <c r="B14">
         <v>7.8674597740173304</v>
@@ -5079,8 +5086,8 @@
       </c>
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="1">
+        <v>72</v>
       </c>
       <c r="B15">
         <v>0.65966051816940297</v>
@@ -5390,8 +5397,8 @@
       </c>
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="1">
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0.54939472675323398</v>
@@ -5701,8 +5708,8 @@
       </c>
     </row>
     <row r="17" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" s="1">
+        <v>95</v>
       </c>
       <c r="B17">
         <v>15.1019086837768</v>
@@ -6012,8 +6019,8 @@
       </c>
     </row>
     <row r="18" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" s="1">
+        <v>70</v>
       </c>
       <c r="B18">
         <v>0.59419089555740301</v>
@@ -6323,8 +6330,8 @@
       </c>
     </row>
     <row r="19" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" s="1">
+        <v>68</v>
       </c>
       <c r="B19">
         <v>3.2770023345947199</v>
@@ -6634,8 +6641,8 @@
       </c>
     </row>
     <row r="20" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" s="1">
+        <v>78</v>
       </c>
       <c r="B20">
         <v>5.5782570838928196</v>
@@ -6945,8 +6952,8 @@
       </c>
     </row>
     <row r="21" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" s="1">
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0.510542333126068</v>
@@ -7256,8 +7263,8 @@
       </c>
     </row>
     <row r="22" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" s="1">
+        <v>52</v>
       </c>
       <c r="B22">
         <v>2.2841932773589999</v>
@@ -7567,8 +7574,8 @@
       </c>
     </row>
     <row r="23" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" s="1">
+        <v>103</v>
       </c>
       <c r="B23">
         <v>12.8717737197875</v>
@@ -7878,8 +7885,8 @@
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" s="1">
+        <v>89</v>
       </c>
       <c r="B24">
         <v>0.55525642633438099</v>
@@ -8189,8 +8196,8 @@
       </c>
     </row>
     <row r="25" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" s="1">
+        <v>93</v>
       </c>
       <c r="B25">
         <v>0.150534853339195</v>
@@ -8500,8 +8507,8 @@
       </c>
     </row>
     <row r="26" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" s="1">
+        <v>195</v>
       </c>
       <c r="B26">
         <v>8.1451759338378906</v>
@@ -8811,8 +8818,8 @@
       </c>
     </row>
     <row r="27" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" s="1">
+        <v>80</v>
       </c>
       <c r="B27">
         <v>0.44281125068664501</v>
@@ -9122,8 +9129,8 @@
       </c>
     </row>
     <row r="28" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" s="1">
+        <v>143</v>
       </c>
       <c r="B28">
         <v>0.28426498174667297</v>
@@ -9433,8 +9440,8 @@
       </c>
     </row>
     <row r="29" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" s="1">
+        <v>182</v>
       </c>
       <c r="B29">
         <v>0.56101608276367099</v>
@@ -9744,8 +9751,8 @@
       </c>
     </row>
     <row r="30" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" s="1">
+        <v>110</v>
       </c>
       <c r="B30">
         <v>0.72228306531906095</v>
@@ -10055,8 +10062,8 @@
       </c>
     </row>
     <row r="31" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" s="1">
+        <v>95</v>
       </c>
       <c r="B31">
         <v>0.42248558998107899</v>
@@ -10366,8 +10373,8 @@
       </c>
     </row>
     <row r="32" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" s="1">
+        <v>57</v>
       </c>
       <c r="B32">
         <v>0.10899546742439201</v>
@@ -10677,8 +10684,8 @@
       </c>
     </row>
     <row r="33" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" s="1">
+        <v>110</v>
       </c>
       <c r="B33">
         <v>2.5569252967834402</v>
@@ -10988,8 +10995,8 @@
       </c>
     </row>
     <row r="34" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" s="1">
+        <v>59</v>
       </c>
       <c r="B34">
         <v>0.46696943044662398</v>
@@ -11299,8 +11306,8 @@
       </c>
     </row>
     <row r="35" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" s="1">
+        <v>54</v>
       </c>
       <c r="B35">
         <v>0.29850554466247498</v>
@@ -11610,8 +11617,8 @@
       </c>
     </row>
     <row r="36" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" s="1">
+        <v>141</v>
       </c>
       <c r="B36">
         <v>0.85334956645965498</v>
@@ -11921,8 +11928,8 @@
       </c>
     </row>
     <row r="37" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" s="1">
+        <v>99</v>
       </c>
       <c r="B37">
         <v>4.3233284950256303</v>
@@ -12232,8 +12239,8 @@
       </c>
     </row>
     <row r="38" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" s="1">
+        <v>134</v>
       </c>
       <c r="B38">
         <v>0.25107705593109098</v>
@@ -12543,8 +12550,8 @@
       </c>
     </row>
     <row r="39" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" s="1">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2.5463690757751398</v>
@@ -12854,8 +12861,8 @@
       </c>
     </row>
     <row r="40" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" s="1">
+        <v>118</v>
       </c>
       <c r="B40">
         <v>6.1789345741271902</v>
@@ -13165,8 +13172,8 @@
       </c>
     </row>
     <row r="41" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" s="1">
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0.29561501741409302</v>
@@ -13476,8 +13483,8 @@
       </c>
     </row>
     <row r="42" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" s="1">
+        <v>66</v>
       </c>
       <c r="B42">
         <v>0.68215596675872803</v>
@@ -13787,8 +13794,8 @@
       </c>
     </row>
     <row r="43" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" s="1">
+        <v>69</v>
       </c>
       <c r="B43">
         <v>2.0686297416686998</v>
@@ -14098,8 +14105,8 @@
       </c>
     </row>
     <row r="44" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" s="1">
+        <v>93</v>
       </c>
       <c r="B44">
         <v>8.3566427230834908</v>
@@ -14409,8 +14416,8 @@
       </c>
     </row>
     <row r="45" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" s="1">
+        <v>89</v>
       </c>
       <c r="B45">
         <v>1.0132120847702</v>
@@ -14720,8 +14727,8 @@
       </c>
     </row>
     <row r="46" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" s="1">
+        <v>113</v>
       </c>
       <c r="B46">
         <v>0.28815335035324002</v>
@@ -15031,8 +15038,8 @@
       </c>
     </row>
     <row r="47" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" s="1">
+        <v>97</v>
       </c>
       <c r="B47">
         <v>1.18748259544372</v>
@@ -15342,8 +15349,8 @@
       </c>
     </row>
     <row r="48" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" s="1">
+        <v>95</v>
       </c>
       <c r="B48">
         <v>9.8159513473510707</v>
@@ -15653,8 +15660,8 @@
       </c>
     </row>
     <row r="49" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" s="1">
+        <v>70</v>
       </c>
       <c r="B49">
         <v>0.20014838874339999</v>
@@ -15964,8 +15971,8 @@
       </c>
     </row>
     <row r="50" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" s="1">
+        <v>87</v>
       </c>
       <c r="B50">
         <v>2.4270858764648402</v>
@@ -16275,8 +16282,8 @@
       </c>
     </row>
     <row r="51" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" s="1">
+        <v>84</v>
       </c>
       <c r="B51">
         <v>0.46167579293250999</v>
@@ -16586,8 +16593,8 @@
       </c>
     </row>
     <row r="52" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" s="1">
+        <v>112</v>
       </c>
       <c r="B52">
         <v>0.132936626672744</v>
@@ -16897,8 +16904,8 @@
       </c>
     </row>
     <row r="53" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" s="1">
+        <v>180</v>
       </c>
       <c r="B53">
         <v>8.5529468953609397E-2</v>
@@ -17208,8 +17215,8 @@
       </c>
     </row>
     <row r="54" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" s="1">
+        <v>21</v>
       </c>
       <c r="B54">
         <v>3.1323223114013601</v>
@@ -17519,8 +17526,8 @@
       </c>
     </row>
     <row r="55" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" s="1">
+        <v>67</v>
       </c>
       <c r="B55">
         <v>0.362519711256027</v>
@@ -17830,8 +17837,8 @@
       </c>
     </row>
     <row r="56" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" s="1">
+        <v>135</v>
       </c>
       <c r="B56">
         <v>0.12654088437557201</v>
@@ -18141,8 +18148,8 @@
       </c>
     </row>
     <row r="57" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" s="1">
+        <v>181</v>
       </c>
       <c r="B57">
         <v>38.088573455810497</v>
@@ -18452,8 +18459,8 @@
       </c>
     </row>
     <row r="58" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" s="1">
+        <v>12</v>
       </c>
       <c r="B58">
         <v>1.0457503795623699</v>
@@ -18763,8 +18770,8 @@
       </c>
     </row>
     <row r="59" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" s="1">
+        <v>107</v>
       </c>
       <c r="B59">
         <v>0.143658652901649</v>
@@ -19074,8 +19081,8 @@
       </c>
     </row>
     <row r="60" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" s="1">
+        <v>75</v>
       </c>
       <c r="B60">
         <v>0.73191660642623901</v>
@@ -19385,8 +19392,8 @@
       </c>
     </row>
     <row r="61" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" s="1">
+        <v>121</v>
       </c>
       <c r="B61">
         <v>1.03946161270141</v>
@@ -19696,8 +19703,8 @@
       </c>
     </row>
     <row r="62" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" s="1">
+        <v>144</v>
       </c>
       <c r="B62">
         <v>0.19249613583087899</v>
@@ -20007,8 +20014,8 @@
       </c>
     </row>
     <row r="63" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" s="1">
+        <v>139</v>
       </c>
       <c r="B63">
         <v>1.66044497489929</v>
@@ -20318,8 +20325,8 @@
       </c>
     </row>
     <row r="64" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" s="1">
+        <v>55</v>
       </c>
       <c r="B64">
         <v>0.32182893157005299</v>
@@ -20629,8 +20636,8 @@
       </c>
     </row>
     <row r="65" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" s="1">
+        <v>17</v>
       </c>
       <c r="B65">
         <v>1.61214864253997</v>
@@ -20940,8 +20947,8 @@
       </c>
     </row>
     <row r="66" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" s="1">
+        <v>59</v>
       </c>
       <c r="B66">
         <v>0.30300506949424699</v>
@@ -21251,8 +21258,8 @@
       </c>
     </row>
     <row r="67" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" s="1">
+        <v>90</v>
       </c>
       <c r="B67">
         <v>1.4597053527832</v>
@@ -21562,8 +21569,8 @@
       </c>
     </row>
     <row r="68" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" s="1">
+        <v>37</v>
       </c>
       <c r="B68">
         <v>1.3132531642913801</v>
@@ -21873,8 +21880,8 @@
       </c>
     </row>
     <row r="69" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" s="1">
+        <v>143</v>
       </c>
       <c r="B69">
         <v>4.1612067222595197</v>
@@ -22184,8 +22191,8 @@
       </c>
     </row>
     <row r="70" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" s="1">
+        <v>88</v>
       </c>
       <c r="B70">
         <v>0.95428454875946001</v>
@@ -22495,8 +22502,8 @@
       </c>
     </row>
     <row r="71" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" s="1">
+        <v>77</v>
       </c>
       <c r="B71">
         <v>1.93410325050354</v>
@@ -22806,8 +22813,8 @@
       </c>
     </row>
     <row r="72" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" s="1">
+        <v>61</v>
       </c>
       <c r="B72">
         <v>0.82771456241607599</v>
@@ -23117,8 +23124,8 @@
       </c>
     </row>
     <row r="73" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
+      <c r="A73" s="1">
+        <v>23</v>
       </c>
       <c r="B73">
         <v>1.05074322223663</v>
@@ -23428,8 +23435,8 @@
       </c>
     </row>
     <row r="74" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
+      <c r="A74" s="1">
+        <v>72</v>
       </c>
       <c r="B74">
         <v>6.4242386817932102</v>
@@ -23739,8 +23746,8 @@
       </c>
     </row>
     <row r="75" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" s="1">
+        <v>32</v>
       </c>
       <c r="B75">
         <v>0.18471360206604001</v>
@@ -24050,8 +24057,8 @@
       </c>
     </row>
     <row r="76" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" s="1">
+        <v>68</v>
       </c>
       <c r="B76">
         <v>0.120283246040344</v>
@@ -24361,8 +24368,8 @@
       </c>
     </row>
     <row r="77" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" s="1">
+        <v>111</v>
       </c>
       <c r="B77">
         <v>1.0671360492706199</v>
@@ -24672,8 +24679,8 @@
       </c>
     </row>
     <row r="78" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" s="1">
+        <v>58</v>
       </c>
       <c r="B78">
         <v>0.68298840522766102</v>
@@ -24983,8 +24990,8 @@
       </c>
     </row>
     <row r="79" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" s="1">
+        <v>44</v>
       </c>
       <c r="B79">
         <v>1.66562807559967</v>
@@ -25294,8 +25301,8 @@
       </c>
     </row>
     <row r="80" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
+      <c r="A80" s="1">
+        <v>1</v>
       </c>
       <c r="B80">
         <v>8.9942455291747994</v>
@@ -25605,8 +25612,8 @@
       </c>
     </row>
     <row r="81" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
+      <c r="A81" s="1">
+        <v>144</v>
       </c>
       <c r="B81">
         <v>0.16726115345954801</v>
@@ -25916,8 +25923,8 @@
       </c>
     </row>
     <row r="82" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
+      <c r="A82" s="1">
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0.469887495040893</v>
@@ -26227,8 +26234,8 @@
       </c>
     </row>
     <row r="83" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
+      <c r="A83" s="1">
+        <v>86</v>
       </c>
       <c r="B83">
         <v>3.5949234962463299</v>
@@ -26538,8 +26545,8 @@
       </c>
     </row>
     <row r="84" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
+      <c r="A84" s="1">
+        <v>152</v>
       </c>
       <c r="B84">
         <v>1.9963897466659499</v>
@@ -26849,8 +26856,8 @@
       </c>
     </row>
     <row r="85" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
+      <c r="A85" s="1">
+        <v>175</v>
       </c>
       <c r="B85">
         <v>1.3984056711196899</v>
@@ -27160,8 +27167,8 @@
       </c>
     </row>
     <row r="86" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
+      <c r="A86" s="1">
+        <v>44</v>
       </c>
       <c r="B86">
         <v>8.3812322616577095</v>
@@ -27471,8 +27478,8 @@
       </c>
     </row>
     <row r="87" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
+      <c r="A87" s="1">
+        <v>110</v>
       </c>
       <c r="B87">
         <v>1.09773278236389</v>
@@ -27782,8 +27789,8 @@
       </c>
     </row>
     <row r="88" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
+      <c r="A88" s="1">
+        <v>60</v>
       </c>
       <c r="B88">
         <v>1.7155638933181701</v>
@@ -28093,8 +28100,8 @@
       </c>
     </row>
     <row r="89" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
+      <c r="A89" s="1">
+        <v>0</v>
       </c>
       <c r="B89">
         <v>3.1170971393585201</v>
@@ -28404,8 +28411,8 @@
       </c>
     </row>
     <row r="90" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
+      <c r="A90" s="1">
+        <v>101</v>
       </c>
       <c r="B90">
         <v>4.6407175064086896</v>
@@ -28715,8 +28722,8 @@
       </c>
     </row>
     <row r="91" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>90</v>
+      <c r="A91" s="1">
+        <v>72</v>
       </c>
       <c r="B91">
         <v>0.29233434796333302</v>
@@ -29026,8 +29033,8 @@
       </c>
     </row>
     <row r="92" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>91</v>
+      <c r="A92" s="1">
+        <v>79</v>
       </c>
       <c r="B92">
         <v>1.5263711214065501</v>
@@ -29337,8 +29344,8 @@
       </c>
     </row>
     <row r="93" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>92</v>
+      <c r="A93" s="1">
+        <v>200</v>
       </c>
       <c r="B93">
         <v>3.92578125</v>
@@ -29648,8 +29655,8 @@
       </c>
     </row>
     <row r="94" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>93</v>
+      <c r="A94" s="1">
+        <v>123</v>
       </c>
       <c r="B94">
         <v>1.24333000183105</v>
@@ -29959,8 +29966,8 @@
       </c>
     </row>
     <row r="95" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>94</v>
+      <c r="A95" s="1">
+        <v>104</v>
       </c>
       <c r="B95">
         <v>0.58518081903457597</v>
@@ -30270,8 +30277,8 @@
       </c>
     </row>
     <row r="96" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>95</v>
+      <c r="A96" s="1">
+        <v>107</v>
       </c>
       <c r="B96">
         <v>5.2176146507263104</v>
@@ -30581,8 +30588,8 @@
       </c>
     </row>
     <row r="97" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>96</v>
+      <c r="A97" s="1">
+        <v>59</v>
       </c>
       <c r="B97">
         <v>1.5378670692443801</v>
@@ -30892,8 +30899,8 @@
       </c>
     </row>
     <row r="98" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>97</v>
+      <c r="A98" s="1">
+        <v>66</v>
       </c>
       <c r="B98">
         <v>0.50422596931457497</v>
@@ -31203,8 +31210,8 @@
       </c>
     </row>
     <row r="99" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>98</v>
+      <c r="A99" s="1">
+        <v>61</v>
       </c>
       <c r="B99">
         <v>0.73046213388442904</v>
@@ -31514,8 +31521,8 @@
       </c>
     </row>
     <row r="100" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>99</v>
+      <c r="A100" s="1">
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0.62924063205718905</v>
@@ -31825,8 +31832,8 @@
       </c>
     </row>
     <row r="101" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>100</v>
+      <c r="A101" s="1">
+        <v>39</v>
       </c>
       <c r="B101">
         <v>3.7487521171569802</v>
@@ -32136,8 +32143,8 @@
       </c>
     </row>
     <row r="102" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>101</v>
+      <c r="A102" s="1">
+        <v>75</v>
       </c>
       <c r="B102">
         <v>1.56879317760467</v>
@@ -32447,8 +32454,8 @@
       </c>
     </row>
     <row r="103" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>102</v>
+      <c r="A103" s="1">
+        <v>98</v>
       </c>
       <c r="B103">
         <v>0.45788881182670499</v>
@@ -32758,8 +32765,8 @@
       </c>
     </row>
     <row r="104" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>103</v>
+      <c r="A104" s="1">
+        <v>115</v>
       </c>
       <c r="B104">
         <v>0.34834617376327498</v>
@@ -33069,8 +33076,8 @@
       </c>
     </row>
     <row r="105" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>104</v>
+      <c r="A105" s="1">
+        <v>11</v>
       </c>
       <c r="B105">
         <v>0.21095742285251601</v>
@@ -33380,8 +33387,8 @@
       </c>
     </row>
     <row r="106" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>105</v>
+      <c r="A106" s="1">
+        <v>14</v>
       </c>
       <c r="B106">
         <v>1.6811600923538199</v>
@@ -33691,8 +33698,8 @@
       </c>
     </row>
     <row r="107" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>106</v>
+      <c r="A107" s="1">
+        <v>58</v>
       </c>
       <c r="B107">
         <v>1.8686381578445399</v>
@@ -34002,8 +34009,8 @@
       </c>
     </row>
     <row r="108" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>107</v>
+      <c r="A108" s="1">
+        <v>55</v>
       </c>
       <c r="B108">
         <v>0.41077813506126398</v>
@@ -34313,8 +34320,8 @@
       </c>
     </row>
     <row r="109" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>108</v>
+      <c r="A109" s="1">
+        <v>154</v>
       </c>
       <c r="B109">
         <v>1.33991611003875</v>
@@ -34624,8 +34631,8 @@
       </c>
     </row>
     <row r="110" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>109</v>
+      <c r="A110" s="1">
+        <v>122</v>
       </c>
       <c r="B110">
         <v>5.5761575698852504</v>
@@ -34935,8 +34942,8 @@
       </c>
     </row>
     <row r="111" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>110</v>
+      <c r="A111" s="1">
+        <v>130</v>
       </c>
       <c r="B111">
         <v>2.4519233703613201</v>
@@ -35246,8 +35253,8 @@
       </c>
     </row>
     <row r="112" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>111</v>
+      <c r="A112" s="1">
+        <v>13</v>
       </c>
       <c r="B112">
         <v>2.8751184940338099</v>
@@ -35557,8 +35564,8 @@
       </c>
     </row>
     <row r="113" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>112</v>
+      <c r="A113" s="1">
+        <v>174</v>
       </c>
       <c r="B113">
         <v>5.8416657447814897</v>
@@ -35868,8 +35875,8 @@
       </c>
     </row>
     <row r="114" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>113</v>
+      <c r="A114" s="1">
+        <v>21</v>
       </c>
       <c r="B114">
         <v>2.6539559364318799</v>
@@ -36179,8 +36186,8 @@
       </c>
     </row>
     <row r="115" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>114</v>
+      <c r="A115" s="1">
+        <v>86</v>
       </c>
       <c r="B115">
         <v>3.0133972167968701</v>
@@ -36490,8 +36497,8 @@
       </c>
     </row>
     <row r="116" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>115</v>
+      <c r="A116" s="1">
+        <v>13</v>
       </c>
       <c r="B116">
         <v>1.6526142358779901</v>
@@ -36801,8 +36808,8 @@
       </c>
     </row>
     <row r="117" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>116</v>
+      <c r="A117" s="1">
+        <v>89</v>
       </c>
       <c r="B117">
         <v>0.72980874776840199</v>
@@ -37112,8 +37119,8 @@
       </c>
     </row>
     <row r="118" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>117</v>
+      <c r="A118" s="1">
+        <v>105</v>
       </c>
       <c r="B118">
         <v>4.1169562339782697</v>
@@ -37423,8 +37430,8 @@
       </c>
     </row>
     <row r="119" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>118</v>
+      <c r="A119" s="1">
+        <v>74</v>
       </c>
       <c r="B119">
         <v>3.9621021598577499E-2</v>
@@ -37734,8 +37741,8 @@
       </c>
     </row>
     <row r="120" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>119</v>
+      <c r="A120" s="1">
+        <v>101</v>
       </c>
       <c r="B120">
         <v>1.2006573677062899</v>
@@ -38045,8 +38052,8 @@
       </c>
     </row>
     <row r="121" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>120</v>
+      <c r="A121" s="1">
+        <v>137</v>
       </c>
       <c r="B121">
         <v>0.78791415691375699</v>
@@ -38356,8 +38363,8 @@
       </c>
     </row>
     <row r="122" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>121</v>
+      <c r="A122" s="1">
+        <v>84</v>
       </c>
       <c r="B122">
         <v>0.39994606375694203</v>
@@ -38667,8 +38674,8 @@
       </c>
     </row>
     <row r="123" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>122</v>
+      <c r="A123" s="1">
+        <v>10</v>
       </c>
       <c r="B123">
         <v>1.1604876518249501</v>
@@ -38978,8 +38985,8 @@
       </c>
     </row>
     <row r="124" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>123</v>
+      <c r="A124" s="1">
+        <v>58</v>
       </c>
       <c r="B124">
         <v>1.61412549018859</v>
@@ -39289,8 +39296,8 @@
       </c>
     </row>
     <row r="125" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>124</v>
+      <c r="A125" s="1">
+        <v>75</v>
       </c>
       <c r="B125">
         <v>1.8045116662979099</v>
@@ -39600,8 +39607,8 @@
       </c>
     </row>
     <row r="126" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>125</v>
+      <c r="A126" s="1">
+        <v>47</v>
       </c>
       <c r="B126">
         <v>0.83031249046325595</v>
@@ -39911,8 +39918,8 @@
       </c>
     </row>
     <row r="127" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>126</v>
+      <c r="A127" s="1">
+        <v>37</v>
       </c>
       <c r="B127">
         <v>3.0534200668334899</v>
@@ -40222,8 +40229,8 @@
       </c>
     </row>
     <row r="128" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>127</v>
+      <c r="A128" s="1">
+        <v>21</v>
       </c>
       <c r="B128">
         <v>0.54646581411361606</v>
@@ -40533,8 +40540,8 @@
       </c>
     </row>
     <row r="129" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>128</v>
+      <c r="A129" s="1">
+        <v>29</v>
       </c>
       <c r="B129">
         <v>3.93777179718017</v>
@@ -40844,8 +40851,8 @@
       </c>
     </row>
     <row r="130" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>129</v>
+      <c r="A130" s="1">
+        <v>58</v>
       </c>
       <c r="B130">
         <v>1.7837942838668801</v>
@@ -41155,8 +41162,8 @@
       </c>
     </row>
     <row r="131" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>130</v>
+      <c r="A131" s="1">
+        <v>42</v>
       </c>
       <c r="B131">
         <v>8.3103618621826101</v>
@@ -41466,8 +41473,8 @@
       </c>
     </row>
     <row r="132" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>131</v>
+      <c r="A132" s="1">
+        <v>56</v>
       </c>
       <c r="B132">
         <v>1.6775383949279701</v>
@@ -41777,8 +41784,8 @@
       </c>
     </row>
     <row r="133" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>132</v>
+      <c r="A133" s="1">
+        <v>89</v>
       </c>
       <c r="B133">
         <v>3.6592669486999498</v>
@@ -42088,8 +42095,8 @@
       </c>
     </row>
     <row r="134" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>133</v>
+      <c r="A134" s="1">
+        <v>71</v>
       </c>
       <c r="B134">
         <v>1.0183538198471001</v>
@@ -42399,8 +42406,8 @@
       </c>
     </row>
     <row r="135" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>134</v>
+      <c r="A135" s="1">
+        <v>143</v>
       </c>
       <c r="B135">
         <v>0.305639117956161</v>
@@ -42710,8 +42717,8 @@
       </c>
     </row>
     <row r="136" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>135</v>
+      <c r="A136" s="1">
+        <v>85</v>
       </c>
       <c r="B136">
         <v>0.17661195993423401</v>
@@ -43021,8 +43028,8 @@
       </c>
     </row>
     <row r="137" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>136</v>
+      <c r="A137" s="1">
+        <v>189</v>
       </c>
       <c r="B137">
         <v>0.392254948616027</v>
@@ -43332,8 +43339,8 @@
       </c>
     </row>
     <row r="138" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>137</v>
+      <c r="A138" s="1">
+        <v>88</v>
       </c>
       <c r="B138">
         <v>0.96332865953445401</v>
@@ -43643,8 +43650,8 @@
       </c>
     </row>
     <row r="139" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>138</v>
+      <c r="A139" s="1">
+        <v>172</v>
       </c>
       <c r="B139">
         <v>1.9026694297790501</v>
@@ -43954,8 +43961,8 @@
       </c>
     </row>
     <row r="140" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>139</v>
+      <c r="A140" s="1">
+        <v>75</v>
       </c>
       <c r="B140">
         <v>2.3102958202361998</v>
@@ -44265,8 +44272,8 @@
       </c>
     </row>
     <row r="141" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>140</v>
+      <c r="A141" s="1">
+        <v>80</v>
       </c>
       <c r="B141">
         <v>0.22958044707775099</v>
@@ -44576,8 +44583,8 @@
       </c>
     </row>
     <row r="142" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>141</v>
+      <c r="A142" s="1">
+        <v>53</v>
       </c>
       <c r="B142">
         <v>3.65482473373413</v>
@@ -44887,8 +44894,8 @@
       </c>
     </row>
     <row r="143" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>142</v>
+      <c r="A143" s="1">
+        <v>65</v>
       </c>
       <c r="B143">
         <v>8.4550224244594505E-2</v>
@@ -45198,8 +45205,8 @@
       </c>
     </row>
     <row r="144" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>143</v>
+      <c r="A144" s="1">
+        <v>44</v>
       </c>
       <c r="B144">
         <v>0.44453376531600902</v>
@@ -45509,8 +45516,8 @@
       </c>
     </row>
     <row r="145" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>144</v>
+      <c r="A145" s="1">
+        <v>46</v>
       </c>
       <c r="B145">
         <v>0.352371275424957</v>
@@ -45820,8 +45827,8 @@
       </c>
     </row>
     <row r="146" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>145</v>
+      <c r="A146" s="1">
+        <v>99</v>
       </c>
       <c r="B146">
         <v>0.94983124732971103</v>
@@ -46131,8 +46138,8 @@
       </c>
     </row>
     <row r="147" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>146</v>
+      <c r="A147" s="1">
+        <v>24</v>
       </c>
       <c r="B147">
         <v>1.88397121429443</v>
@@ -46442,8 +46449,8 @@
       </c>
     </row>
     <row r="148" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>147</v>
+      <c r="A148" s="1">
+        <v>75</v>
       </c>
       <c r="B148">
         <v>0.50510776042938199</v>
@@ -46753,8 +46760,8 @@
       </c>
     </row>
     <row r="149" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>148</v>
+      <c r="A149" s="1">
+        <v>76</v>
       </c>
       <c r="B149">
         <v>1.78289282321929</v>
@@ -47064,8 +47071,8 @@
       </c>
     </row>
     <row r="150" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>149</v>
+      <c r="A150" s="1">
+        <v>178</v>
       </c>
       <c r="B150">
         <v>1.37249183654785</v>
@@ -47375,8 +47382,8 @@
       </c>
     </row>
     <row r="151" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>150</v>
+      <c r="A151" s="1">
+        <v>62</v>
       </c>
       <c r="B151">
         <v>1.44177305698394</v>
@@ -47686,8 +47693,8 @@
       </c>
     </row>
     <row r="152" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>151</v>
+      <c r="A152" s="1">
+        <v>1</v>
       </c>
       <c r="B152">
         <v>0.410928905010223</v>
@@ -47997,8 +48004,8 @@
       </c>
     </row>
     <row r="153" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>152</v>
+      <c r="A153" s="1">
+        <v>38</v>
       </c>
       <c r="B153">
         <v>0.202107459306716</v>
@@ -48308,8 +48315,8 @@
       </c>
     </row>
     <row r="154" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>153</v>
+      <c r="A154" s="1">
+        <v>1</v>
       </c>
       <c r="B154">
         <v>2.3911874294281001</v>
@@ -48619,8 +48626,8 @@
       </c>
     </row>
     <row r="155" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>154</v>
+      <c r="A155" s="1">
+        <v>65</v>
       </c>
       <c r="B155">
         <v>6.7096290588378897</v>
@@ -48930,8 +48937,8 @@
       </c>
     </row>
     <row r="156" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>155</v>
+      <c r="A156" s="1">
+        <v>174</v>
       </c>
       <c r="B156">
         <v>3.1368002295494003E-2</v>
@@ -49241,8 +49248,8 @@
       </c>
     </row>
     <row r="157" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>156</v>
+      <c r="A157" s="1">
+        <v>100</v>
       </c>
       <c r="B157">
         <v>0.74136769771575906</v>
@@ -49552,8 +49559,8 @@
       </c>
     </row>
     <row r="158" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>157</v>
+      <c r="A158" s="1">
+        <v>35</v>
       </c>
       <c r="B158">
         <v>5.0930708646774202E-2</v>
@@ -49863,8 +49870,8 @@
       </c>
     </row>
     <row r="159" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>158</v>
+      <c r="A159" s="1">
+        <v>116</v>
       </c>
       <c r="B159">
         <v>0.56975537538528398</v>
@@ -50174,8 +50181,8 @@
       </c>
     </row>
     <row r="160" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>159</v>
+      <c r="A160" s="1">
+        <v>128</v>
       </c>
       <c r="B160">
         <v>0.65615421533584595</v>
@@ -50485,8 +50492,8 @@
       </c>
     </row>
     <row r="161" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>160</v>
+      <c r="A161" s="1">
+        <v>115</v>
       </c>
       <c r="B161">
         <v>1.40759849548339</v>
@@ -50796,8 +50803,8 @@
       </c>
     </row>
     <row r="162" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>161</v>
+      <c r="A162" s="1">
+        <v>87</v>
       </c>
       <c r="B162">
         <v>0.128514990210533</v>
@@ -51107,8 +51114,8 @@
       </c>
     </row>
     <row r="163" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>162</v>
+      <c r="A163" s="1">
+        <v>90</v>
       </c>
       <c r="B163">
         <v>0.68813455104827803</v>
@@ -51418,8 +51425,8 @@
       </c>
     </row>
     <row r="164" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>163</v>
+      <c r="A164" s="1">
+        <v>63</v>
       </c>
       <c r="B164">
         <v>0.47905361652374201</v>
@@ -51729,8 +51736,8 @@
       </c>
     </row>
     <row r="165" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>164</v>
+      <c r="A165" s="1">
+        <v>20</v>
       </c>
       <c r="B165">
         <v>1.08556461334228</v>
@@ -52040,8 +52047,8 @@
       </c>
     </row>
     <row r="166" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>165</v>
+      <c r="A166" s="1">
+        <v>41</v>
       </c>
       <c r="B166">
         <v>4.0515584945678702</v>
@@ -52351,8 +52358,8 @@
       </c>
     </row>
     <row r="167" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>166</v>
+      <c r="A167" s="1">
+        <v>65</v>
       </c>
       <c r="B167">
         <v>1.33575510978698</v>
@@ -52662,8 +52669,8 @@
       </c>
     </row>
     <row r="168" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>167</v>
+      <c r="A168" s="1">
+        <v>110</v>
       </c>
       <c r="B168">
         <v>5.8633651733398402</v>
@@ -52973,8 +52980,8 @@
       </c>
     </row>
     <row r="169" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>168</v>
+      <c r="A169" s="1">
+        <v>37</v>
       </c>
       <c r="B169">
         <v>0.46962746977806002</v>
@@ -53284,8 +53291,8 @@
       </c>
     </row>
     <row r="170" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>169</v>
+      <c r="A170" s="1">
+        <v>71</v>
       </c>
       <c r="B170">
         <v>1.6821846961975</v>
@@ -53595,8 +53602,8 @@
       </c>
     </row>
     <row r="171" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>170</v>
+      <c r="A171" s="1">
+        <v>180</v>
       </c>
       <c r="B171">
         <v>0.175542622804641</v>
@@ -53906,8 +53913,8 @@
       </c>
     </row>
     <row r="172" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>171</v>
+      <c r="A172" s="1">
+        <v>102</v>
       </c>
       <c r="B172">
         <v>0.12064520269632301</v>
@@ -54217,8 +54224,8 @@
       </c>
     </row>
     <row r="173" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>172</v>
+      <c r="A173" s="1">
+        <v>1</v>
       </c>
       <c r="B173">
         <v>3.2484288215637198</v>
@@ -54528,8 +54535,8 @@
       </c>
     </row>
     <row r="174" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>173</v>
+      <c r="A174" s="1">
+        <v>130</v>
       </c>
       <c r="B174">
         <v>0.29725402593612599</v>
@@ -54839,8 +54846,8 @@
       </c>
     </row>
     <row r="175" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>174</v>
+      <c r="A175" s="1">
+        <v>8</v>
       </c>
       <c r="B175">
         <v>1.36928951740264</v>
@@ -55150,8 +55157,8 @@
       </c>
     </row>
     <row r="176" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>175</v>
+      <c r="A176" s="1">
+        <v>165</v>
       </c>
       <c r="B176">
         <v>0.22678977251052801</v>
@@ -55461,8 +55468,8 @@
       </c>
     </row>
     <row r="177" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>176</v>
+      <c r="A177" s="1">
+        <v>16</v>
       </c>
       <c r="B177">
         <v>1.40754961967468</v>
@@ -55772,8 +55779,8 @@
       </c>
     </row>
     <row r="178" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>177</v>
+      <c r="A178" s="1">
+        <v>77</v>
       </c>
       <c r="B178">
         <v>1.87937760353088</v>
@@ -56083,8 +56090,8 @@
       </c>
     </row>
     <row r="179" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>178</v>
+      <c r="A179" s="1">
+        <v>25</v>
       </c>
       <c r="B179">
         <v>0.16844685375690399</v>
@@ -56394,8 +56401,8 @@
       </c>
     </row>
     <row r="180" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>179</v>
+      <c r="A180" s="1">
+        <v>95</v>
       </c>
       <c r="B180">
         <v>0.458446085453033</v>
@@ -56705,8 +56712,8 @@
       </c>
     </row>
     <row r="181" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>180</v>
+      <c r="A181" s="1">
+        <v>33</v>
       </c>
       <c r="B181">
         <v>6.47851526737213E-2</v>
@@ -57016,8 +57023,8 @@
       </c>
     </row>
     <row r="182" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>181</v>
+      <c r="A182" s="1">
+        <v>63</v>
       </c>
       <c r="B182">
         <v>0.13916653394699</v>
@@ -57327,8 +57334,8 @@
       </c>
     </row>
     <row r="183" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>182</v>
+      <c r="A183" s="1">
+        <v>24</v>
       </c>
       <c r="B183">
         <v>1.14346671104431</v>
@@ -57638,8 +57645,8 @@
       </c>
     </row>
     <row r="184" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>183</v>
+      <c r="A184" s="1">
+        <v>109</v>
       </c>
       <c r="B184">
         <v>0.35179200768470698</v>
@@ -57949,8 +57956,8 @@
       </c>
     </row>
     <row r="185" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>184</v>
+      <c r="A185" s="1">
+        <v>67</v>
       </c>
       <c r="B185">
         <v>0.85641855001449496</v>
@@ -58260,8 +58267,8 @@
       </c>
     </row>
     <row r="186" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>185</v>
+      <c r="A186" s="1">
+        <v>15</v>
       </c>
       <c r="B186">
         <v>3.2741334438323899</v>
@@ -58571,8 +58578,8 @@
       </c>
     </row>
     <row r="187" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>186</v>
+      <c r="A187" s="1">
+        <v>85</v>
       </c>
       <c r="B187">
         <v>2.6257572174072199</v>
@@ -58882,8 +58889,8 @@
       </c>
     </row>
     <row r="188" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>187</v>
+      <c r="A188" s="1">
+        <v>33</v>
       </c>
       <c r="B188">
         <v>0.51392680406570401</v>
@@ -59193,8 +59200,8 @@
       </c>
     </row>
     <row r="189" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>188</v>
+      <c r="A189" s="1">
+        <v>53</v>
       </c>
       <c r="B189">
         <v>0.141513407230377</v>
@@ -59504,8 +59511,8 @@
       </c>
     </row>
     <row r="190" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>189</v>
+      <c r="A190" s="1">
+        <v>58</v>
       </c>
       <c r="B190">
         <v>2.0409264564514098</v>
@@ -59815,8 +59822,8 @@
       </c>
     </row>
     <row r="191" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>190</v>
+      <c r="A191" s="1">
+        <v>15</v>
       </c>
       <c r="B191">
         <v>9.1108074188232404</v>
@@ -60126,8 +60133,8 @@
       </c>
     </row>
     <row r="192" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>191</v>
+      <c r="A192" s="1">
+        <v>88</v>
       </c>
       <c r="B192">
         <v>2.2846398353576598</v>
@@ -60437,8 +60444,8 @@
       </c>
     </row>
     <row r="193" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>192</v>
+      <c r="A193" s="1">
+        <v>144</v>
       </c>
       <c r="B193">
         <v>1.9137551784515301</v>
@@ -60748,8 +60755,8 @@
       </c>
     </row>
     <row r="194" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>193</v>
+      <c r="A194" s="1">
+        <v>38</v>
       </c>
       <c r="B194">
         <v>0.60731399059295599</v>
@@ -61059,8 +61066,8 @@
       </c>
     </row>
     <row r="195" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>194</v>
+      <c r="A195" s="1">
+        <v>74</v>
       </c>
       <c r="B195">
         <v>0.172682449221611</v>
@@ -61370,8 +61377,8 @@
       </c>
     </row>
     <row r="196" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>195</v>
+      <c r="A196" s="1">
+        <v>27</v>
       </c>
       <c r="B196">
         <v>0.62332761287689198</v>
@@ -61681,8 +61688,8 @@
       </c>
     </row>
     <row r="197" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>196</v>
+      <c r="A197" s="1">
+        <v>49</v>
       </c>
       <c r="B197">
         <v>0.40996187925338701</v>
@@ -61992,8 +61999,8 @@
       </c>
     </row>
     <row r="198" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>197</v>
+      <c r="A198" s="1">
+        <v>150</v>
       </c>
       <c r="B198">
         <v>1.4615176916122401</v>
@@ -62303,8 +62310,8 @@
       </c>
     </row>
     <row r="199" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>198</v>
+      <c r="A199" s="1">
+        <v>16</v>
       </c>
       <c r="B199">
         <v>0.41972547769546498</v>
@@ -62614,8 +62621,8 @@
       </c>
     </row>
     <row r="200" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>199</v>
+      <c r="A200" s="1">
+        <v>4</v>
       </c>
       <c r="B200">
         <v>2.9950459003448402</v>
@@ -62925,8 +62932,8 @@
       </c>
     </row>
     <row r="201" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>200</v>
+      <c r="A201" s="1">
+        <v>67</v>
       </c>
       <c r="B201">
         <v>0.45608004927635099</v>
@@ -63236,8 +63243,8 @@
       </c>
     </row>
     <row r="202" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>201</v>
+      <c r="A202" s="1">
+        <v>33</v>
       </c>
       <c r="B202">
         <v>1.7725213766098</v>
@@ -63547,8 +63554,8 @@
       </c>
     </row>
     <row r="203" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>202</v>
+      <c r="A203" s="1">
+        <v>44</v>
       </c>
       <c r="B203">
         <v>2.7022705078125</v>
@@ -63858,8 +63865,8 @@
       </c>
     </row>
     <row r="204" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>203</v>
+      <c r="A204" s="1">
+        <v>64</v>
       </c>
       <c r="B204">
         <v>8.4410533308982794E-2</v>
@@ -64169,8 +64176,8 @@
       </c>
     </row>
     <row r="205" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>204</v>
+      <c r="A205" s="1">
+        <v>127</v>
       </c>
       <c r="B205">
         <v>1.4162511825561499</v>
@@ -64480,8 +64487,8 @@
       </c>
     </row>
     <row r="206" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>205</v>
+      <c r="A206" s="1">
+        <v>7</v>
       </c>
       <c r="B206">
         <v>2.6515035629272399</v>
@@ -64791,8 +64798,8 @@
       </c>
     </row>
     <row r="207" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>206</v>
+      <c r="A207" s="1">
+        <v>39</v>
       </c>
       <c r="B207">
         <v>0.83815574645996005</v>
@@ -65102,8 +65109,8 @@
       </c>
     </row>
     <row r="208" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>207</v>
+      <c r="A208" s="1">
+        <v>74</v>
       </c>
       <c r="B208">
         <v>0.49426493048667902</v>
@@ -65413,8 +65420,8 @@
       </c>
     </row>
     <row r="209" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>208</v>
+      <c r="A209" s="1">
+        <v>80</v>
       </c>
       <c r="B209">
         <v>0.53020483255386297</v>
@@ -65724,8 +65731,8 @@
       </c>
     </row>
     <row r="210" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>209</v>
+      <c r="A210" s="1">
+        <v>145</v>
       </c>
       <c r="B210">
         <v>0.46109479665756198</v>
@@ -66035,8 +66042,8 @@
       </c>
     </row>
     <row r="211" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>210</v>
+      <c r="A211" s="1">
+        <v>171</v>
       </c>
       <c r="B211">
         <v>2.4222049713134699</v>
@@ -66346,8 +66353,8 @@
       </c>
     </row>
     <row r="212" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>211</v>
+      <c r="A212" s="1">
+        <v>2</v>
       </c>
       <c r="B212">
         <v>0.47742789983749301</v>
@@ -66657,8 +66664,8 @@
       </c>
     </row>
     <row r="213" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>212</v>
+      <c r="A213" s="1">
+        <v>58</v>
       </c>
       <c r="B213">
         <v>4.7339897155761701</v>
@@ -66968,8 +66975,8 @@
       </c>
     </row>
     <row r="214" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>213</v>
+      <c r="A214" s="1">
+        <v>181</v>
       </c>
       <c r="B214">
         <v>0.63659834861755304</v>
@@ -67279,8 +67286,8 @@
       </c>
     </row>
     <row r="215" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>214</v>
+      <c r="A215" s="1">
+        <v>4</v>
       </c>
       <c r="B215">
         <v>0.32853659987449602</v>
@@ -67590,8 +67597,8 @@
       </c>
     </row>
     <row r="216" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>215</v>
+      <c r="A216" s="1">
+        <v>68</v>
       </c>
       <c r="B216">
         <v>0.49770179390907199</v>
@@ -67901,8 +67908,8 @@
       </c>
     </row>
     <row r="217" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>216</v>
+      <c r="A217" s="1">
+        <v>71</v>
       </c>
       <c r="B217">
         <v>0.63807862997054998</v>
@@ -68212,8 +68219,8 @@
       </c>
     </row>
     <row r="218" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>217</v>
+      <c r="A218" s="1">
+        <v>166</v>
       </c>
       <c r="B218">
         <v>6.9382681846618599</v>
@@ -68523,8 +68530,8 @@
       </c>
     </row>
     <row r="219" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>218</v>
+      <c r="A219" s="1">
+        <v>191</v>
       </c>
       <c r="B219">
         <v>3.4516913890838601</v>
@@ -68834,8 +68841,8 @@
       </c>
     </row>
     <row r="220" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>219</v>
+      <c r="A220" s="1">
+        <v>6</v>
       </c>
       <c r="B220">
         <v>0.63498169183731001</v>
@@ -69145,8 +69152,8 @@
       </c>
     </row>
     <row r="221" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>220</v>
+      <c r="A221" s="1">
+        <v>22</v>
       </c>
       <c r="B221">
         <v>6.4025745391845703</v>
@@ -69456,8 +69463,8 @@
       </c>
     </row>
     <row r="222" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>221</v>
+      <c r="A222" s="1">
+        <v>44</v>
       </c>
       <c r="B222">
         <v>3.0200548171996999</v>
@@ -69767,8 +69774,8 @@
       </c>
     </row>
     <row r="223" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>222</v>
+      <c r="A223" s="1">
+        <v>233</v>
       </c>
       <c r="B223">
         <v>1.9263514280319201</v>
@@ -70078,8 +70085,8 @@
       </c>
     </row>
     <row r="224" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>223</v>
+      <c r="A224" s="1">
+        <v>97</v>
       </c>
       <c r="B224">
         <v>0.50013989210128695</v>
@@ -70389,8 +70396,8 @@
       </c>
     </row>
     <row r="225" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>224</v>
+      <c r="A225" s="1">
+        <v>167</v>
       </c>
       <c r="B225">
         <v>5.7926702499389604</v>
@@ -70700,8 +70707,8 @@
       </c>
     </row>
     <row r="226" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>225</v>
+      <c r="A226" s="1">
+        <v>22</v>
       </c>
       <c r="B226">
         <v>1.3116703033447199</v>
